--- a/biology/Botanique/Parc_central_des_loisirs_et_de_la_culture/Parc_central_des_loisirs_et_de_la_culture.xlsx
+++ b/biology/Botanique/Parc_central_des_loisirs_et_de_la_culture/Parc_central_des_loisirs_et_de_la_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  parc central des loisirs et de la culture est un parc naturel situé rue Soumska à Kharkiv, en Ukraine.
-Le parc a été créé au XIXe siècle ; en 1899 la décision de doubler sa superficie fut prise pour le centenaire de la naissance de Pouchkine. Il fut rebaptisé Maxime-Gorki deux années après la mort du romancier et en 1940 un train miniature pour enfants y fut installé. En 2012, le parc a été entièrement reconstruit[2].
-Le 13 juin 2023, le parc a été rebaptisé parc central des loisirs et de la culture[3]. L'ancien nom est le parc central de la culture et des loisirs du nom de Maxim Gorky.
-Le parc est endommagé lors de l'invasion de l'Ukraine de 2022[4].
+Le parc a été créé au XIXe siècle ; en 1899 la décision de doubler sa superficie fut prise pour le centenaire de la naissance de Pouchkine. Il fut rebaptisé Maxime-Gorki deux années après la mort du romancier et en 1940 un train miniature pour enfants y fut installé. En 2012, le parc a été entièrement reconstruit.
+Le 13 juin 2023, le parc a été rebaptisé parc central des loisirs et de la culture. L'ancien nom est le parc central de la culture et des loisirs du nom de Maxim Gorky.
+Le parc est endommagé lors de l'invasion de l'Ukraine de 2022.
 </t>
         </is>
       </c>
